--- a/results/mp/tinybert/toy-spam/confidence/84/stop-words-masking-0.35/avg_0.002_scores.xlsx
+++ b/results/mp/tinybert/toy-spam/confidence/84/stop-words-masking-0.35/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="149">
   <si>
     <t>anchor score</t>
   </si>
@@ -43,211 +43,229 @@
     <t>poorly</t>
   </si>
   <si>
+    <t>crap</t>
+  </si>
+  <si>
+    <t>disappointing</t>
+  </si>
+  <si>
+    <t>disappointment</t>
+  </si>
+  <si>
     <t>thin</t>
   </si>
   <si>
-    <t>crap</t>
-  </si>
-  <si>
-    <t>disappointing</t>
-  </si>
-  <si>
-    <t>disappointment</t>
-  </si>
-  <si>
-    <t>horrible</t>
+    <t>terrible</t>
+  </si>
+  <si>
+    <t>ripped</t>
+  </si>
+  <si>
+    <t>inches</t>
+  </si>
+  <si>
+    <t>poor</t>
+  </si>
+  <si>
+    <t>loose</t>
   </si>
   <si>
     <t>however</t>
   </si>
   <si>
-    <t>ripped</t>
-  </si>
-  <si>
-    <t>loose</t>
+    <t>pool</t>
+  </si>
+  <si>
+    <t>disappointed</t>
+  </si>
+  <si>
+    <t>ref</t>
+  </si>
+  <si>
+    <t>waste</t>
+  </si>
+  <si>
+    <t>broke</t>
+  </si>
+  <si>
+    <t>water</t>
+  </si>
+  <si>
+    <t>smaller</t>
   </si>
   <si>
     <t>returned</t>
   </si>
   <si>
-    <t>poor</t>
-  </si>
-  <si>
-    <t>inches</t>
-  </si>
-  <si>
-    <t>broke</t>
-  </si>
-  <si>
-    <t>disappointed</t>
-  </si>
-  <si>
-    <t>pool</t>
-  </si>
-  <si>
-    <t>waste</t>
+    <t>instead</t>
+  </si>
+  <si>
+    <t>junk</t>
+  </si>
+  <si>
+    <t>probably</t>
+  </si>
+  <si>
+    <t>noise</t>
+  </si>
+  <si>
+    <t>small</t>
+  </si>
+  <si>
+    <t>guess</t>
+  </si>
+  <si>
+    <t>low</t>
+  </si>
+  <si>
+    <t>broken</t>
+  </si>
+  <si>
+    <t>apart</t>
+  </si>
+  <si>
+    <t>fell</t>
+  </si>
+  <si>
+    <t>missing</t>
   </si>
   <si>
     <t>tiny</t>
   </si>
   <si>
-    <t>smaller</t>
-  </si>
-  <si>
-    <t>instead</t>
-  </si>
-  <si>
-    <t>water</t>
-  </si>
-  <si>
-    <t>small</t>
-  </si>
-  <si>
-    <t>junk</t>
-  </si>
-  <si>
-    <t>missing</t>
-  </si>
-  <si>
-    <t>broken</t>
-  </si>
-  <si>
-    <t>guess</t>
-  </si>
-  <si>
-    <t>fell</t>
+    <t>okay</t>
+  </si>
+  <si>
+    <t>less</t>
+  </si>
+  <si>
+    <t>plastic</t>
   </si>
   <si>
     <t>un</t>
   </si>
   <si>
+    <t>paint</t>
+  </si>
+  <si>
+    <t>cheap</t>
+  </si>
+  <si>
+    <t>ok</t>
+  </si>
+  <si>
     <t>short</t>
   </si>
   <si>
-    <t>plastic</t>
-  </si>
-  <si>
-    <t>probably</t>
-  </si>
-  <si>
-    <t>paint</t>
+    <t>lasted</t>
+  </si>
+  <si>
+    <t>half</t>
+  </si>
+  <si>
+    <t>fl</t>
   </si>
   <si>
     <t>di</t>
   </si>
   <si>
-    <t>cheap</t>
-  </si>
-  <si>
-    <t>ok</t>
+    <t>tried</t>
   </si>
   <si>
     <t>difficult</t>
   </si>
   <si>
-    <t>okay</t>
-  </si>
-  <si>
     <t>pay</t>
   </si>
   <si>
-    <t>lasted</t>
-  </si>
-  <si>
-    <t>fl</t>
-  </si>
-  <si>
-    <t>less</t>
+    <t>thought</t>
   </si>
   <si>
     <t>maybe</t>
   </si>
   <si>
-    <t>half</t>
-  </si>
-  <si>
-    <t>tried</t>
-  </si>
-  <si>
-    <t>description</t>
-  </si>
-  <si>
     <t>bad</t>
   </si>
   <si>
-    <t>thought</t>
-  </si>
-  <si>
-    <t>apart</t>
-  </si>
-  <si>
     <t>bit</t>
   </si>
   <si>
+    <t>sound</t>
+  </si>
+  <si>
+    <t>though</t>
+  </si>
+  <si>
+    <t>nothing</t>
+  </si>
+  <si>
     <t>size</t>
   </si>
   <si>
+    <t>item</t>
+  </si>
+  <si>
     <t>minutes</t>
   </si>
   <si>
-    <t>return</t>
-  </si>
-  <si>
-    <t>though</t>
+    <t>hard</t>
+  </si>
+  <si>
+    <t>picture</t>
+  </si>
+  <si>
+    <t>worked</t>
   </si>
   <si>
     <t>color</t>
   </si>
   <si>
+    <t>work</t>
+  </si>
+  <si>
+    <t>would</t>
+  </si>
+  <si>
+    <t>price</t>
+  </si>
+  <si>
+    <t>back</t>
+  </si>
+  <si>
+    <t>stay</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
     <t>money</t>
   </si>
   <si>
-    <t>worked</t>
-  </si>
-  <si>
     <t>could</t>
   </si>
   <si>
-    <t>item</t>
-  </si>
-  <si>
-    <t>hard</t>
-  </si>
-  <si>
-    <t>stay</t>
-  </si>
-  <si>
-    <t>back</t>
-  </si>
-  <si>
-    <t>would</t>
-  </si>
-  <si>
-    <t>price</t>
-  </si>
-  <si>
-    <t>nothing</t>
-  </si>
-  <si>
-    <t>work</t>
+    <t>fit</t>
   </si>
   <si>
     <t>better</t>
   </si>
   <si>
-    <t>1</t>
+    <t>product</t>
+  </si>
+  <si>
+    <t>used</t>
   </si>
   <si>
     <t>look</t>
   </si>
   <si>
-    <t>fit</t>
+    <t>3</t>
   </si>
   <si>
     <t>box</t>
   </si>
   <si>
-    <t>product</t>
+    <t>2</t>
   </si>
   <si>
     <t>pieces</t>
@@ -256,58 +274,55 @@
     <t>put</t>
   </si>
   <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>looks</t>
+    <t>5</t>
+  </si>
+  <si>
+    <t>need</t>
+  </si>
+  <si>
+    <t>buy</t>
+  </si>
+  <si>
+    <t>expected</t>
   </si>
   <si>
     <t>use</t>
   </si>
   <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>used</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>buy</t>
-  </si>
-  <si>
-    <t>never</t>
+    <t>34</t>
   </si>
   <si>
     <t>way</t>
   </si>
   <si>
+    <t>even</t>
+  </si>
+  <si>
+    <t>make</t>
+  </si>
+  <si>
+    <t>two</t>
+  </si>
+  <si>
+    <t>like</t>
+  </si>
+  <si>
     <t>little</t>
   </si>
   <si>
-    <t>34</t>
-  </si>
-  <si>
-    <t>expected</t>
-  </si>
-  <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>even</t>
-  </si>
-  <si>
     <t>made</t>
   </si>
   <si>
     <t>much</t>
   </si>
   <si>
+    <t>toy</t>
+  </si>
+  <si>
     <t>one</t>
   </si>
   <si>
-    <t>toy</t>
+    <t>got</t>
   </si>
   <si>
     <t>get</t>
@@ -316,21 +331,18 @@
     <t>time</t>
   </si>
   <si>
-    <t>bought</t>
-  </si>
-  <si>
     <t>negative</t>
   </si>
   <si>
     <t>wonderful</t>
   </si>
   <si>
+    <t>amazing</t>
+  </si>
+  <si>
     <t>awesome</t>
   </si>
   <si>
-    <t>amazing</t>
-  </si>
-  <si>
     <t>favorite</t>
   </si>
   <si>
@@ -340,118 +352,109 @@
     <t>fantastic</t>
   </si>
   <si>
+    <t>classic</t>
+  </si>
+  <si>
     <t>enjoyable</t>
   </si>
   <si>
-    <t>classic</t>
+    <t>thank</t>
   </si>
   <si>
     <t>love</t>
   </si>
   <si>
-    <t>thank</t>
-  </si>
-  <si>
     <t>loves</t>
   </si>
   <si>
     <t>great</t>
   </si>
   <si>
+    <t>pleased</t>
+  </si>
+  <si>
     <t>loved</t>
   </si>
   <si>
+    <t>expansion</t>
+  </si>
+  <si>
+    <t>friends</t>
+  </si>
+  <si>
     <t>perfect</t>
   </si>
   <si>
+    <t>thanks</t>
+  </si>
+  <si>
     <t>best</t>
   </si>
   <si>
-    <t>friends</t>
-  </si>
-  <si>
-    <t>pleased</t>
-  </si>
-  <si>
-    <t>grandchildren</t>
-  </si>
-  <si>
-    <t>expansion</t>
-  </si>
-  <si>
-    <t>highly</t>
+    <t>learn</t>
+  </si>
+  <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>enjoys</t>
+  </si>
+  <si>
+    <t>every</t>
   </si>
   <si>
     <t>christmas</t>
   </si>
   <si>
-    <t>learn</t>
-  </si>
-  <si>
-    <t>happy</t>
-  </si>
-  <si>
     <t>enjoy</t>
   </si>
   <si>
-    <t>every</t>
-  </si>
-  <si>
     <t>enjoyed</t>
   </si>
   <si>
-    <t>sturdy</t>
-  </si>
-  <si>
     <t>fun</t>
   </si>
   <si>
     <t>birthday</t>
   </si>
   <si>
-    <t>ages</t>
-  </si>
-  <si>
     <t>book</t>
   </si>
   <si>
+    <t>game</t>
+  </si>
+  <si>
     <t>easy</t>
   </si>
   <si>
-    <t>game</t>
+    <t>playing</t>
   </si>
   <si>
     <t>family</t>
   </si>
   <si>
-    <t>games</t>
-  </si>
-  <si>
-    <t>playing</t>
+    <t>children</t>
   </si>
   <si>
     <t>cute</t>
   </si>
   <si>
+    <t>nice</t>
+  </si>
+  <si>
     <t>play</t>
   </si>
   <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>grandson</t>
-  </si>
-  <si>
-    <t>gift</t>
+    <t>year</t>
+  </si>
+  <si>
+    <t>daughter</t>
   </si>
   <si>
     <t>well</t>
   </si>
   <si>
-    <t>year</t>
-  </si>
-  <si>
-    <t>son</t>
+    <t>kids</t>
   </si>
   <si>
     <t>good</t>
@@ -815,7 +818,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q95"/>
+  <dimension ref="A1:Q99"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -823,10 +826,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="J1" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -884,13 +887,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.9782608695652174</v>
+        <v>0.9347826086956522</v>
       </c>
       <c r="C3">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D3">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -902,10 +905,10 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="K3">
         <v>0.8928571428571429</v>
@@ -934,13 +937,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.896551724137931</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="C4">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="D4">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -955,16 +958,16 @@
         <v>3</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="K4">
-        <v>0.8923076923076924</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="L4">
-        <v>58</v>
+        <v>24</v>
       </c>
       <c r="M4">
-        <v>58</v>
+        <v>24</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -976,7 +979,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -984,13 +987,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.8571428571428571</v>
+        <v>0.8409090909090909</v>
       </c>
       <c r="C5">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="D5">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -1002,19 +1005,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="K5">
-        <v>0.8518518518518519</v>
+        <v>0.8307692307692308</v>
       </c>
       <c r="L5">
-        <v>23</v>
+        <v>54</v>
       </c>
       <c r="M5">
-        <v>23</v>
+        <v>54</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -1026,7 +1029,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>4</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -1034,13 +1037,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.8409090909090909</v>
+        <v>0.8095238095238095</v>
       </c>
       <c r="C6">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="D6">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -1052,19 +1055,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="K6">
-        <v>0.8387096774193549</v>
+        <v>0.8064516129032258</v>
       </c>
       <c r="L6">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="M6">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -1076,7 +1079,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -1084,13 +1087,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.8095238095238095</v>
+        <v>0.7931034482758621</v>
       </c>
       <c r="C7">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="D7">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -1102,19 +1105,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="K7">
-        <v>0.75</v>
+        <v>0.796875</v>
       </c>
       <c r="L7">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="M7">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -1126,7 +1129,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1155,7 +1158,7 @@
         <v>4</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="K8">
         <v>0.75</v>
@@ -1184,13 +1187,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.75</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="C9">
-        <v>48</v>
+        <v>21</v>
       </c>
       <c r="D9">
-        <v>48</v>
+        <v>21</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1202,19 +1205,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="K9">
-        <v>0.75</v>
+        <v>0.7358490566037735</v>
       </c>
       <c r="L9">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="M9">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1226,7 +1229,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>6</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1234,13 +1237,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.7407407407407407</v>
+        <v>0.7727272727272727</v>
       </c>
       <c r="C10">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D10">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1252,19 +1255,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="K10">
-        <v>0.660377358490566</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L10">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="M10">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1276,7 +1279,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>18</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1284,13 +1287,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.7391304347826086</v>
+        <v>0.7464788732394366</v>
       </c>
       <c r="C11">
-        <v>17</v>
+        <v>53</v>
       </c>
       <c r="D11">
-        <v>17</v>
+        <v>53</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1302,19 +1305,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="K11">
-        <v>0.5868005738880918</v>
+        <v>0.6376811594202898</v>
       </c>
       <c r="L11">
-        <v>409</v>
+        <v>44</v>
       </c>
       <c r="M11">
-        <v>409</v>
+        <v>44</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1326,7 +1329,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>288</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1334,13 +1337,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.7368421052631579</v>
+        <v>0.7391304347826086</v>
       </c>
       <c r="C12">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="D12">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1352,19 +1355,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="K12">
-        <v>0.5507246376811594</v>
+        <v>0.5724533715925395</v>
       </c>
       <c r="L12">
-        <v>38</v>
+        <v>399</v>
       </c>
       <c r="M12">
-        <v>38</v>
+        <v>399</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1376,7 +1379,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>31</v>
+        <v>298</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1384,13 +1387,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.7323943661971831</v>
+        <v>0.71875</v>
       </c>
       <c r="C13">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="D13">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1402,19 +1405,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="K13">
-        <v>0.516597510373444</v>
+        <v>0.5373443983402489</v>
       </c>
       <c r="L13">
-        <v>249</v>
+        <v>259</v>
       </c>
       <c r="M13">
-        <v>249</v>
+        <v>259</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1426,7 +1429,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>233</v>
+        <v>223</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1434,13 +1437,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.6818181818181818</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="C14">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="D14">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1452,19 +1455,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="K14">
-        <v>0.4631147540983607</v>
+        <v>0.4721311475409836</v>
       </c>
       <c r="L14">
-        <v>565</v>
+        <v>576</v>
       </c>
       <c r="M14">
-        <v>565</v>
+        <v>576</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1476,7 +1479,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>655</v>
+        <v>644</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1484,13 +1487,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.6747572815533981</v>
+        <v>0.6881720430107527</v>
       </c>
       <c r="C15">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="D15">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1502,19 +1505,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="K15">
-        <v>0.3944954128440367</v>
+        <v>0.4150943396226415</v>
       </c>
       <c r="L15">
-        <v>129</v>
+        <v>22</v>
       </c>
       <c r="M15">
-        <v>129</v>
+        <v>22</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1526,7 +1529,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>198</v>
+        <v>31</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1534,13 +1537,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.6666666666666666</v>
+        <v>0.6818181818181818</v>
       </c>
       <c r="C16">
-        <v>124</v>
+        <v>15</v>
       </c>
       <c r="D16">
-        <v>124</v>
+        <v>15</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1552,19 +1555,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>62</v>
+        <v>7</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="K16">
-        <v>0.3674698795180723</v>
+        <v>0.363914373088685</v>
       </c>
       <c r="L16">
-        <v>61</v>
+        <v>119</v>
       </c>
       <c r="M16">
-        <v>61</v>
+        <v>119</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1576,7 +1579,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>105</v>
+        <v>208</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1584,13 +1587,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.6571428571428571</v>
+        <v>0.668918918918919</v>
       </c>
       <c r="C17">
-        <v>23</v>
+        <v>99</v>
       </c>
       <c r="D17">
-        <v>23</v>
+        <v>99</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1602,19 +1605,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>12</v>
+        <v>49</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="K17">
-        <v>0.3666666666666666</v>
+        <v>0.3404255319148936</v>
       </c>
       <c r="L17">
-        <v>44</v>
+        <v>16</v>
       </c>
       <c r="M17">
-        <v>44</v>
+        <v>16</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1626,7 +1629,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>76</v>
+        <v>31</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1634,13 +1637,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.6216216216216216</v>
+        <v>0.6456310679611651</v>
       </c>
       <c r="C18">
-        <v>92</v>
+        <v>133</v>
       </c>
       <c r="D18">
-        <v>92</v>
+        <v>133</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1652,19 +1655,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>56</v>
+        <v>73</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="K18">
-        <v>0.3492063492063492</v>
+        <v>0.3386243386243386</v>
       </c>
       <c r="L18">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="M18">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1676,7 +1679,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1684,13 +1687,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.6</v>
+        <v>0.6428571428571429</v>
       </c>
       <c r="C19">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="D19">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1702,19 +1705,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="K19">
-        <v>0.3396226415094339</v>
+        <v>0.3373493975903614</v>
       </c>
       <c r="L19">
-        <v>18</v>
+        <v>56</v>
       </c>
       <c r="M19">
-        <v>18</v>
+        <v>56</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1726,7 +1729,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>35</v>
+        <v>110</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1734,13 +1737,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.5966386554621849</v>
+        <v>0.6302521008403361</v>
       </c>
       <c r="C20">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="D20">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1752,13 +1755,13 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="K20">
-        <v>0.3272727272727273</v>
+        <v>0.3050847457627119</v>
       </c>
       <c r="L20">
         <v>18</v>
@@ -1776,7 +1779,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>37</v>
+        <v>41</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1784,13 +1787,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.5625</v>
+        <v>0.6052631578947368</v>
       </c>
       <c r="C21">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D21">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1802,19 +1805,19 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="K21">
-        <v>0.3191489361702128</v>
+        <v>0.3</v>
       </c>
       <c r="L21">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="M21">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1826,7 +1829,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>32</v>
+        <v>84</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1834,13 +1837,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.5476190476190477</v>
+        <v>0.6041666666666666</v>
       </c>
       <c r="C22">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="D22">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1855,28 +1858,28 @@
         <v>19</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="K22">
-        <v>0.3026315789473684</v>
+        <v>0.2734375</v>
       </c>
       <c r="L22">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="M22">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="N22">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O22">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q22">
-        <v>53</v>
+        <v>93</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1884,13 +1887,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.527536231884058</v>
+        <v>0.5818181818181818</v>
       </c>
       <c r="C23">
-        <v>182</v>
+        <v>32</v>
       </c>
       <c r="D23">
-        <v>182</v>
+        <v>32</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1902,19 +1905,19 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>163</v>
+        <v>23</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="K23">
-        <v>0.2449799196787149</v>
+        <v>0.2657342657342657</v>
       </c>
       <c r="L23">
-        <v>61</v>
+        <v>38</v>
       </c>
       <c r="M23">
-        <v>61</v>
+        <v>38</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1926,7 +1929,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>188</v>
+        <v>105</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1934,13 +1937,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.5272727272727272</v>
+        <v>0.5789473684210527</v>
       </c>
       <c r="C24">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="D24">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1952,19 +1955,19 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="K24">
-        <v>0.2421875</v>
+        <v>0.2622950819672131</v>
       </c>
       <c r="L24">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="M24">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1976,7 +1979,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>97</v>
+        <v>45</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1984,13 +1987,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.5111111111111111</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="C25">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="D25">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -2002,19 +2005,19 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="K25">
-        <v>0.2237762237762238</v>
+        <v>0.24</v>
       </c>
       <c r="L25">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M25">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -2026,7 +2029,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>111</v>
+        <v>95</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -2034,13 +2037,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.4819277108433735</v>
+        <v>0.5449275362318841</v>
       </c>
       <c r="C26">
-        <v>40</v>
+        <v>188</v>
       </c>
       <c r="D26">
-        <v>40</v>
+        <v>188</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -2052,19 +2055,19 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>43</v>
+        <v>157</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="K26">
-        <v>0.2096774193548387</v>
+        <v>0.21285140562249</v>
       </c>
       <c r="L26">
-        <v>39</v>
+        <v>53</v>
       </c>
       <c r="M26">
-        <v>39</v>
+        <v>53</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -2076,7 +2079,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>147</v>
+        <v>196</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -2084,37 +2087,37 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.4814814814814815</v>
+        <v>0.5185185185185185</v>
       </c>
       <c r="C27">
+        <v>28</v>
+      </c>
+      <c r="D27">
+        <v>28</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27" t="b">
+        <v>0</v>
+      </c>
+      <c r="H27">
         <v>26</v>
       </c>
-      <c r="D27">
-        <v>26</v>
-      </c>
-      <c r="E27">
-        <v>0</v>
-      </c>
-      <c r="F27">
-        <v>1</v>
-      </c>
-      <c r="G27" t="b">
-        <v>0</v>
-      </c>
-      <c r="H27">
-        <v>28</v>
-      </c>
       <c r="J27" s="1" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="K27">
-        <v>0.208</v>
+        <v>0.2096774193548387</v>
       </c>
       <c r="L27">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="M27">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -2126,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>99</v>
+        <v>147</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -2134,13 +2137,13 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.4727272727272727</v>
+        <v>0.5161290322580645</v>
       </c>
       <c r="C28">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="D28">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -2152,10 +2155,10 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="K28">
         <v>0.1904761904761905</v>
@@ -2184,13 +2187,13 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.4651162790697674</v>
+        <v>0.4819277108433735</v>
       </c>
       <c r="C29">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="D29">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -2202,19 +2205,19 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>23</v>
+        <v>43</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="K29">
-        <v>0.1839080459770115</v>
+        <v>0.1840490797546012</v>
       </c>
       <c r="L29">
-        <v>16</v>
+        <v>210</v>
       </c>
       <c r="M29">
-        <v>16</v>
+        <v>210</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -2226,7 +2229,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>71</v>
+        <v>931</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -2234,13 +2237,13 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.4489795918367347</v>
+        <v>0.4736842105263158</v>
       </c>
       <c r="C30">
-        <v>22</v>
+        <v>45</v>
       </c>
       <c r="D30">
-        <v>22</v>
+        <v>45</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -2252,19 +2255,19 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>27</v>
+        <v>50</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="K30">
-        <v>0.1761612620508326</v>
+        <v>0.1709401709401709</v>
       </c>
       <c r="L30">
-        <v>201</v>
+        <v>20</v>
       </c>
       <c r="M30">
-        <v>201</v>
+        <v>20</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -2276,7 +2279,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>940</v>
+        <v>97</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -2284,13 +2287,13 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.4488188976377953</v>
+        <v>0.4727272727272727</v>
       </c>
       <c r="C31">
-        <v>57</v>
+        <v>26</v>
       </c>
       <c r="D31">
-        <v>57</v>
+        <v>26</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -2302,19 +2305,19 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>70</v>
+        <v>29</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="K31">
-        <v>0.1709401709401709</v>
+        <v>0.1233766233766234</v>
       </c>
       <c r="L31">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M31">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -2326,7 +2329,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>97</v>
+        <v>135</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -2334,13 +2337,13 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.4473684210526316</v>
+        <v>0.4666666666666667</v>
       </c>
       <c r="C32">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D32">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -2352,31 +2355,31 @@
         <v>0</v>
       </c>
       <c r="H32">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="K32">
-        <v>0.1293103448275862</v>
+        <v>0.1033810143042913</v>
       </c>
       <c r="L32">
-        <v>15</v>
+        <v>159</v>
       </c>
       <c r="M32">
-        <v>16</v>
+        <v>162</v>
       </c>
       <c r="N32">
-        <v>0.9399999999999999</v>
+        <v>0.98</v>
       </c>
       <c r="O32">
-        <v>0.06000000000000005</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P32" t="b">
         <v>1</v>
       </c>
       <c r="Q32">
-        <v>101</v>
+        <v>1379</v>
       </c>
     </row>
     <row r="33" spans="1:17">
@@ -2384,13 +2387,13 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.4444444444444444</v>
+        <v>0.4571428571428571</v>
       </c>
       <c r="C33">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="D33">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -2402,19 +2405,19 @@
         <v>0</v>
       </c>
       <c r="H33">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="K33">
-        <v>0.1168831168831169</v>
+        <v>0.0855614973262032</v>
       </c>
       <c r="L33">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="M33">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -2426,7 +2429,7 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>136</v>
+        <v>342</v>
       </c>
     </row>
     <row r="34" spans="1:17">
@@ -2434,49 +2437,49 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.4375</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="C34">
+        <v>24</v>
+      </c>
+      <c r="D34">
+        <v>24</v>
+      </c>
+      <c r="E34">
+        <v>0</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34" t="b">
+        <v>0</v>
+      </c>
+      <c r="H34">
+        <v>30</v>
+      </c>
+      <c r="J34" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="K34">
+        <v>0.08359133126934984</v>
+      </c>
+      <c r="L34">
+        <v>27</v>
+      </c>
+      <c r="M34">
         <v>28</v>
       </c>
-      <c r="D34">
-        <v>28</v>
-      </c>
-      <c r="E34">
-        <v>0</v>
-      </c>
-      <c r="F34">
-        <v>1</v>
-      </c>
-      <c r="G34" t="b">
-        <v>0</v>
-      </c>
-      <c r="H34">
-        <v>36</v>
-      </c>
-      <c r="J34" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="K34">
-        <v>0.106951871657754</v>
-      </c>
-      <c r="L34">
-        <v>40</v>
-      </c>
-      <c r="M34">
-        <v>40</v>
-      </c>
       <c r="N34">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="O34">
-        <v>0</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P34" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q34">
-        <v>334</v>
+        <v>296</v>
       </c>
     </row>
     <row r="35" spans="1:17">
@@ -2484,13 +2487,13 @@
         <v>40</v>
       </c>
       <c r="B35">
-        <v>0.4265402843601896</v>
+        <v>0.4333333333333333</v>
       </c>
       <c r="C35">
-        <v>90</v>
+        <v>26</v>
       </c>
       <c r="D35">
-        <v>90</v>
+        <v>26</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -2502,31 +2505,31 @@
         <v>0</v>
       </c>
       <c r="H35">
-        <v>121</v>
+        <v>34</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="K35">
-        <v>0.1046814044213264</v>
+        <v>0.07799442896935933</v>
       </c>
       <c r="L35">
-        <v>161</v>
+        <v>28</v>
       </c>
       <c r="M35">
-        <v>164</v>
+        <v>28</v>
       </c>
       <c r="N35">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O35">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P35" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q35">
-        <v>1377</v>
+        <v>331</v>
       </c>
     </row>
     <row r="36" spans="1:17">
@@ -2534,13 +2537,13 @@
         <v>41</v>
       </c>
       <c r="B36">
-        <v>0.421875</v>
+        <v>0.4330708661417323</v>
       </c>
       <c r="C36">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D36">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -2552,31 +2555,31 @@
         <v>0</v>
       </c>
       <c r="H36">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="K36">
-        <v>0.1002785515320334</v>
+        <v>0.07389162561576355</v>
       </c>
       <c r="L36">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="M36">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="N36">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="O36">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="P36" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q36">
-        <v>323</v>
+        <v>188</v>
       </c>
     </row>
     <row r="37" spans="1:17">
@@ -2584,49 +2587,49 @@
         <v>42</v>
       </c>
       <c r="B37">
-        <v>0.4157303370786517</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="C37">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="D37">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="E37">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="F37">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="G37" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H37">
-        <v>52</v>
+        <v>24</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="K37">
-        <v>0.1</v>
+        <v>0.07003891050583658</v>
       </c>
       <c r="L37">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="M37">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="N37">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O37">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P37" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q37">
-        <v>144</v>
+        <v>239</v>
       </c>
     </row>
     <row r="38" spans="1:17">
@@ -2634,49 +2637,49 @@
         <v>43</v>
       </c>
       <c r="B38">
-        <v>0.4150943396226415</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="C38">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="D38">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E38">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="F38">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="G38" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H38">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="K38">
-        <v>0.09657320872274143</v>
+        <v>0.06551724137931035</v>
       </c>
       <c r="L38">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="M38">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="N38">
-        <v>0.91</v>
+        <v>1</v>
       </c>
       <c r="O38">
-        <v>0.08999999999999997</v>
+        <v>0</v>
       </c>
       <c r="P38" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q38">
-        <v>290</v>
+        <v>271</v>
       </c>
     </row>
     <row r="39" spans="1:17">
@@ -2684,13 +2687,13 @@
         <v>44</v>
       </c>
       <c r="B39">
-        <v>0.4126984126984127</v>
+        <v>0.4265402843601896</v>
       </c>
       <c r="C39">
-        <v>26</v>
+        <v>90</v>
       </c>
       <c r="D39">
-        <v>26</v>
+        <v>90</v>
       </c>
       <c r="E39">
         <v>0</v>
@@ -2702,31 +2705,31 @@
         <v>0</v>
       </c>
       <c r="H39">
-        <v>37</v>
+        <v>121</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="K39">
-        <v>0.07782101167315175</v>
+        <v>0.06133333333333333</v>
       </c>
       <c r="L39">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="M39">
-        <v>20</v>
+        <v>48</v>
       </c>
       <c r="N39">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="O39">
-        <v>0</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P39" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q39">
-        <v>237</v>
+        <v>704</v>
       </c>
     </row>
     <row r="40" spans="1:17">
@@ -2734,13 +2737,13 @@
         <v>45</v>
       </c>
       <c r="B40">
-        <v>0.4047619047619048</v>
+        <v>0.421875</v>
       </c>
       <c r="C40">
-        <v>17</v>
+        <v>54</v>
       </c>
       <c r="D40">
-        <v>17</v>
+        <v>54</v>
       </c>
       <c r="E40">
         <v>0</v>
@@ -2752,31 +2755,31 @@
         <v>0</v>
       </c>
       <c r="H40">
-        <v>25</v>
+        <v>74</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="K40">
-        <v>0.07085561497326204</v>
+        <v>0.05823293172690763</v>
       </c>
       <c r="L40">
-        <v>53</v>
+        <v>29</v>
       </c>
       <c r="M40">
-        <v>57</v>
+        <v>31</v>
       </c>
       <c r="N40">
-        <v>0.93</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O40">
-        <v>0.06999999999999995</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P40" t="b">
         <v>1</v>
       </c>
       <c r="Q40">
-        <v>695</v>
+        <v>469</v>
       </c>
     </row>
     <row r="41" spans="1:17">
@@ -2784,13 +2787,13 @@
         <v>46</v>
       </c>
       <c r="B41">
-        <v>0.396551724137931</v>
+        <v>0.4081632653061225</v>
       </c>
       <c r="C41">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D41">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E41">
         <v>0</v>
@@ -2802,31 +2805,31 @@
         <v>0</v>
       </c>
       <c r="H41">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="K41">
-        <v>0.06551724137931035</v>
+        <v>0.05333333333333334</v>
       </c>
       <c r="L41">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="M41">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="N41">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="O41">
-        <v>0</v>
+        <v>0.11</v>
       </c>
       <c r="P41" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q41">
-        <v>271</v>
+        <v>284</v>
       </c>
     </row>
     <row r="42" spans="1:17">
@@ -2834,13 +2837,13 @@
         <v>47</v>
       </c>
       <c r="B42">
-        <v>0.3666666666666666</v>
+        <v>0.4047619047619048</v>
       </c>
       <c r="C42">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="D42">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="E42">
         <v>0</v>
@@ -2852,31 +2855,31 @@
         <v>0</v>
       </c>
       <c r="H42">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="K42">
-        <v>0.04823151125401929</v>
+        <v>0.05115089514066496</v>
       </c>
       <c r="L42">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="M42">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="N42">
-        <v>0.83</v>
+        <v>0.8</v>
       </c>
       <c r="O42">
-        <v>0.17</v>
+        <v>0.2</v>
       </c>
       <c r="P42" t="b">
         <v>1</v>
       </c>
       <c r="Q42">
-        <v>296</v>
+        <v>371</v>
       </c>
     </row>
     <row r="43" spans="1:17">
@@ -2884,13 +2887,13 @@
         <v>48</v>
       </c>
       <c r="B43">
-        <v>0.3571428571428572</v>
+        <v>0.3888888888888889</v>
       </c>
       <c r="C43">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D43">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E43">
         <v>0</v>
@@ -2902,31 +2905,31 @@
         <v>0</v>
       </c>
       <c r="H43">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="K43">
-        <v>0.04310344827586207</v>
+        <v>0.04107142857142857</v>
       </c>
       <c r="L43">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="M43">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="N43">
-        <v>0.83</v>
+        <v>0.82</v>
       </c>
       <c r="O43">
-        <v>0.17</v>
+        <v>0.18</v>
       </c>
       <c r="P43" t="b">
         <v>1</v>
       </c>
       <c r="Q43">
-        <v>333</v>
+        <v>537</v>
       </c>
     </row>
     <row r="44" spans="1:17">
@@ -2934,13 +2937,13 @@
         <v>49</v>
       </c>
       <c r="B44">
-        <v>0.3518518518518519</v>
+        <v>0.3793103448275862</v>
       </c>
       <c r="C44">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D44">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E44">
         <v>0</v>
@@ -2952,31 +2955,31 @@
         <v>0</v>
       </c>
       <c r="H44">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="J44" s="1" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="K44">
-        <v>0.04123711340206185</v>
+        <v>0.03129445234708392</v>
       </c>
       <c r="L44">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="M44">
         <v>24</v>
       </c>
       <c r="N44">
-        <v>0.67</v>
+        <v>0.92</v>
       </c>
       <c r="O44">
-        <v>0.33</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="P44" t="b">
         <v>1</v>
       </c>
       <c r="Q44">
-        <v>372</v>
+        <v>681</v>
       </c>
     </row>
     <row r="45" spans="1:17">
@@ -2984,13 +2987,13 @@
         <v>50</v>
       </c>
       <c r="B45">
-        <v>0.3442622950819672</v>
+        <v>0.375</v>
       </c>
       <c r="C45">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D45">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E45">
         <v>0</v>
@@ -3005,28 +3008,28 @@
         <v>40</v>
       </c>
       <c r="J45" s="1" t="s">
-        <v>144</v>
+        <v>101</v>
       </c>
       <c r="K45">
-        <v>0.03830645161290323</v>
+        <v>0.02529960053262317</v>
       </c>
       <c r="L45">
         <v>19</v>
       </c>
       <c r="M45">
-        <v>23</v>
+        <v>62</v>
       </c>
       <c r="N45">
-        <v>0.83</v>
+        <v>0.31</v>
       </c>
       <c r="O45">
-        <v>0.17</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="P45" t="b">
         <v>1</v>
       </c>
       <c r="Q45">
-        <v>477</v>
+        <v>732</v>
       </c>
     </row>
     <row r="46" spans="1:17">
@@ -3034,13 +3037,13 @@
         <v>51</v>
       </c>
       <c r="B46">
-        <v>0.3333333333333333</v>
+        <v>0.360655737704918</v>
       </c>
       <c r="C46">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="D46">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="E46">
         <v>0</v>
@@ -3052,31 +3055,7 @@
         <v>0</v>
       </c>
       <c r="H46">
-        <v>32</v>
-      </c>
-      <c r="J46" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="K46">
-        <v>0.03720930232558139</v>
-      </c>
-      <c r="L46">
-        <v>16</v>
-      </c>
-      <c r="M46">
-        <v>19</v>
-      </c>
-      <c r="N46">
-        <v>0.84</v>
-      </c>
-      <c r="O46">
-        <v>0.16</v>
-      </c>
-      <c r="P46" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q46">
-        <v>414</v>
+        <v>39</v>
       </c>
     </row>
     <row r="47" spans="1:17">
@@ -3084,13 +3063,13 @@
         <v>52</v>
       </c>
       <c r="B47">
-        <v>0.3283582089552239</v>
+        <v>0.3370786516853932</v>
       </c>
       <c r="C47">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="D47">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="E47">
         <v>0</v>
@@ -3102,31 +3081,7 @@
         <v>0</v>
       </c>
       <c r="H47">
-        <v>45</v>
-      </c>
-      <c r="J47" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="K47">
-        <v>0.0329512893982808</v>
-      </c>
-      <c r="L47">
-        <v>23</v>
-      </c>
-      <c r="M47">
-        <v>30</v>
-      </c>
-      <c r="N47">
-        <v>0.77</v>
-      </c>
-      <c r="O47">
-        <v>0.23</v>
-      </c>
-      <c r="P47" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q47">
-        <v>675</v>
+        <v>59</v>
       </c>
     </row>
     <row r="48" spans="1:17">
@@ -3134,13 +3089,13 @@
         <v>53</v>
       </c>
       <c r="B48">
-        <v>0.3267326732673267</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="C48">
-        <v>66</v>
+        <v>21</v>
       </c>
       <c r="D48">
-        <v>66</v>
+        <v>21</v>
       </c>
       <c r="E48">
         <v>0</v>
@@ -3152,7 +3107,7 @@
         <v>0</v>
       </c>
       <c r="H48">
-        <v>136</v>
+        <v>42</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -3160,13 +3115,13 @@
         <v>54</v>
       </c>
       <c r="B49">
-        <v>0.3263157894736842</v>
+        <v>0.3168316831683168</v>
       </c>
       <c r="C49">
-        <v>31</v>
+        <v>64</v>
       </c>
       <c r="D49">
-        <v>31</v>
+        <v>64</v>
       </c>
       <c r="E49">
         <v>0</v>
@@ -3178,7 +3133,7 @@
         <v>0</v>
       </c>
       <c r="H49">
-        <v>64</v>
+        <v>138</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -3186,13 +3141,13 @@
         <v>55</v>
       </c>
       <c r="B50">
-        <v>0.2857142857142857</v>
+        <v>0.3035714285714285</v>
       </c>
       <c r="C50">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="D50">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="E50">
         <v>0</v>
@@ -3204,7 +3159,7 @@
         <v>0</v>
       </c>
       <c r="H50">
-        <v>70</v>
+        <v>39</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -3212,13 +3167,13 @@
         <v>56</v>
       </c>
       <c r="B51">
-        <v>0.2525773195876289</v>
+        <v>0.2985074626865671</v>
       </c>
       <c r="C51">
-        <v>49</v>
+        <v>20</v>
       </c>
       <c r="D51">
-        <v>49</v>
+        <v>20</v>
       </c>
       <c r="E51">
         <v>0</v>
@@ -3230,7 +3185,7 @@
         <v>0</v>
       </c>
       <c r="H51">
-        <v>145</v>
+        <v>47</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -3238,13 +3193,13 @@
         <v>57</v>
       </c>
       <c r="B52">
-        <v>0.2432432432432433</v>
+        <v>0.2959183673469388</v>
       </c>
       <c r="C52">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="D52">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="E52">
         <v>0</v>
@@ -3256,7 +3211,7 @@
         <v>0</v>
       </c>
       <c r="H52">
-        <v>56</v>
+        <v>69</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -3264,13 +3219,13 @@
         <v>58</v>
       </c>
       <c r="B53">
-        <v>0.2419354838709677</v>
+        <v>0.2608695652173913</v>
       </c>
       <c r="C53">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D53">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E53">
         <v>0</v>
@@ -3282,7 +3237,7 @@
         <v>0</v>
       </c>
       <c r="H53">
-        <v>47</v>
+        <v>51</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -3290,13 +3245,13 @@
         <v>59</v>
       </c>
       <c r="B54">
-        <v>0.2307692307692308</v>
+        <v>0.2393162393162393</v>
       </c>
       <c r="C54">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D54">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E54">
         <v>0</v>
@@ -3308,7 +3263,7 @@
         <v>0</v>
       </c>
       <c r="H54">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -3316,13 +3271,13 @@
         <v>60</v>
       </c>
       <c r="B55">
-        <v>0.2133333333333333</v>
+        <v>0.2307692307692308</v>
       </c>
       <c r="C55">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D55">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="E55">
         <v>0</v>
@@ -3334,7 +3289,7 @@
         <v>0</v>
       </c>
       <c r="H55">
-        <v>59</v>
+        <v>70</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -3342,13 +3297,13 @@
         <v>61</v>
       </c>
       <c r="B56">
-        <v>0.2088607594936709</v>
+        <v>0.2216494845360825</v>
       </c>
       <c r="C56">
-        <v>66</v>
+        <v>43</v>
       </c>
       <c r="D56">
-        <v>66</v>
+        <v>43</v>
       </c>
       <c r="E56">
         <v>0</v>
@@ -3360,7 +3315,7 @@
         <v>0</v>
       </c>
       <c r="H56">
-        <v>250</v>
+        <v>151</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -3368,25 +3323,25 @@
         <v>62</v>
       </c>
       <c r="B57">
-        <v>0.205607476635514</v>
+        <v>0.2210144927536232</v>
       </c>
       <c r="C57">
-        <v>22</v>
+        <v>61</v>
       </c>
       <c r="D57">
-        <v>23</v>
+        <v>61</v>
       </c>
       <c r="E57">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="F57">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="G57" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H57">
-        <v>85</v>
+        <v>215</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -3394,13 +3349,13 @@
         <v>63</v>
       </c>
       <c r="B58">
-        <v>0.2038216560509554</v>
+        <v>0.2162162162162162</v>
       </c>
       <c r="C58">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="D58">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="E58">
         <v>0</v>
@@ -3412,7 +3367,7 @@
         <v>0</v>
       </c>
       <c r="H58">
-        <v>125</v>
+        <v>58</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -3420,25 +3375,25 @@
         <v>64</v>
       </c>
       <c r="B59">
-        <v>0.2036363636363636</v>
+        <v>0.21</v>
       </c>
       <c r="C59">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="D59">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="E59">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="F59">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="G59" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H59">
-        <v>219</v>
+        <v>158</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -3446,25 +3401,25 @@
         <v>65</v>
       </c>
       <c r="B60">
-        <v>0.1959798994974874</v>
+        <v>0.2061855670103093</v>
       </c>
       <c r="C60">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="D60">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="E60">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="F60">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="G60" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H60">
-        <v>160</v>
+        <v>77</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -3472,25 +3427,25 @@
         <v>66</v>
       </c>
       <c r="B61">
-        <v>0.1923076923076923</v>
+        <v>0.205607476635514</v>
       </c>
       <c r="C61">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="D61">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="E61">
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="F61">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="G61" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H61">
-        <v>63</v>
+        <v>85</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -3498,13 +3453,13 @@
         <v>67</v>
       </c>
       <c r="B62">
-        <v>0.1857142857142857</v>
+        <v>0.2</v>
       </c>
       <c r="C62">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="D62">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="E62">
         <v>0</v>
@@ -3516,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="H62">
-        <v>114</v>
+        <v>60</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -3524,13 +3479,13 @@
         <v>68</v>
       </c>
       <c r="B63">
-        <v>0.1847988077496274</v>
+        <v>0.1968253968253968</v>
       </c>
       <c r="C63">
-        <v>124</v>
+        <v>62</v>
       </c>
       <c r="D63">
-        <v>127</v>
+        <v>63</v>
       </c>
       <c r="E63">
         <v>0.02</v>
@@ -3542,7 +3497,7 @@
         <v>1</v>
       </c>
       <c r="H63">
-        <v>547</v>
+        <v>253</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -3550,13 +3505,13 @@
         <v>69</v>
       </c>
       <c r="B64">
-        <v>0.1844380403458213</v>
+        <v>0.193452380952381</v>
       </c>
       <c r="C64">
-        <v>64</v>
+        <v>130</v>
       </c>
       <c r="D64">
-        <v>65</v>
+        <v>132</v>
       </c>
       <c r="E64">
         <v>0.02</v>
@@ -3568,7 +3523,7 @@
         <v>1</v>
       </c>
       <c r="H64">
-        <v>283</v>
+        <v>542</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -3576,25 +3531,25 @@
         <v>70</v>
       </c>
       <c r="B65">
-        <v>0.1758241758241758</v>
+        <v>0.1930835734870317</v>
       </c>
       <c r="C65">
-        <v>16</v>
+        <v>67</v>
       </c>
       <c r="D65">
-        <v>16</v>
+        <v>68</v>
       </c>
       <c r="E65">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="F65">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="G65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H65">
-        <v>75</v>
+        <v>280</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -3602,13 +3557,13 @@
         <v>71</v>
       </c>
       <c r="B66">
-        <v>0.1740506329113924</v>
+        <v>0.1928571428571429</v>
       </c>
       <c r="C66">
-        <v>55</v>
+        <v>27</v>
       </c>
       <c r="D66">
-        <v>55</v>
+        <v>27</v>
       </c>
       <c r="E66">
         <v>0</v>
@@ -3620,7 +3575,7 @@
         <v>0</v>
       </c>
       <c r="H66">
-        <v>261</v>
+        <v>113</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -3628,13 +3583,13 @@
         <v>72</v>
       </c>
       <c r="B67">
-        <v>0.1682242990654206</v>
+        <v>0.1923076923076923</v>
       </c>
       <c r="C67">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="D67">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="E67">
         <v>0</v>
@@ -3646,7 +3601,7 @@
         <v>0</v>
       </c>
       <c r="H67">
-        <v>178</v>
+        <v>63</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -3654,25 +3609,25 @@
         <v>73</v>
       </c>
       <c r="B68">
-        <v>0.1623931623931624</v>
+        <v>0.1864406779661017</v>
       </c>
       <c r="C68">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D68">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E68">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="F68">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="G68" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H68">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -3680,25 +3635,25 @@
         <v>74</v>
       </c>
       <c r="B69">
-        <v>0.1587301587301587</v>
+        <v>0.1835443037974684</v>
       </c>
       <c r="C69">
-        <v>20</v>
+        <v>58</v>
       </c>
       <c r="D69">
-        <v>22</v>
+        <v>58</v>
       </c>
       <c r="E69">
-        <v>0.09</v>
+        <v>0</v>
       </c>
       <c r="F69">
-        <v>0.91</v>
+        <v>1</v>
       </c>
       <c r="G69" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H69">
-        <v>106</v>
+        <v>258</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -3706,13 +3661,13 @@
         <v>75</v>
       </c>
       <c r="B70">
-        <v>0.154639175257732</v>
+        <v>0.178343949044586</v>
       </c>
       <c r="C70">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="D70">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="E70">
         <v>0</v>
@@ -3724,7 +3679,7 @@
         <v>0</v>
       </c>
       <c r="H70">
-        <v>82</v>
+        <v>129</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -3732,13 +3687,13 @@
         <v>76</v>
       </c>
       <c r="B71">
-        <v>0.1518324607329843</v>
+        <v>0.1752577319587629</v>
       </c>
       <c r="C71">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="D71">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="E71">
         <v>0</v>
@@ -3750,7 +3705,7 @@
         <v>0</v>
       </c>
       <c r="H71">
-        <v>162</v>
+        <v>80</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -3758,13 +3713,13 @@
         <v>77</v>
       </c>
       <c r="B72">
-        <v>0.1475770925110132</v>
+        <v>0.1728971962616822</v>
       </c>
       <c r="C72">
-        <v>67</v>
+        <v>37</v>
       </c>
       <c r="D72">
-        <v>67</v>
+        <v>37</v>
       </c>
       <c r="E72">
         <v>0</v>
@@ -3776,7 +3731,7 @@
         <v>0</v>
       </c>
       <c r="H72">
-        <v>387</v>
+        <v>177</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -3784,13 +3739,13 @@
         <v>78</v>
       </c>
       <c r="B73">
-        <v>0.1420765027322404</v>
+        <v>0.1541850220264317</v>
       </c>
       <c r="C73">
-        <v>26</v>
+        <v>70</v>
       </c>
       <c r="D73">
-        <v>26</v>
+        <v>70</v>
       </c>
       <c r="E73">
         <v>0</v>
@@ -3802,7 +3757,7 @@
         <v>0</v>
       </c>
       <c r="H73">
-        <v>157</v>
+        <v>384</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -3810,13 +3765,13 @@
         <v>79</v>
       </c>
       <c r="B74">
-        <v>0.1298701298701299</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="C74">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D74">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E74">
         <v>0</v>
@@ -3828,7 +3783,7 @@
         <v>0</v>
       </c>
       <c r="H74">
-        <v>134</v>
+        <v>150</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -3836,13 +3791,13 @@
         <v>80</v>
       </c>
       <c r="B75">
-        <v>0.1273408239700375</v>
+        <v>0.140625</v>
       </c>
       <c r="C75">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="D75">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="E75">
         <v>0</v>
@@ -3854,7 +3809,7 @@
         <v>0</v>
       </c>
       <c r="H75">
-        <v>233</v>
+        <v>110</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -3862,13 +3817,13 @@
         <v>81</v>
       </c>
       <c r="B76">
-        <v>0.1221374045801527</v>
+        <v>0.1370967741935484</v>
       </c>
       <c r="C76">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="D76">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="E76">
         <v>0</v>
@@ -3880,7 +3835,7 @@
         <v>0</v>
       </c>
       <c r="H76">
-        <v>115</v>
+        <v>214</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -3888,25 +3843,25 @@
         <v>82</v>
       </c>
       <c r="B77">
-        <v>0.1212121212121212</v>
+        <v>0.1361256544502618</v>
       </c>
       <c r="C77">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="D77">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="E77">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="F77">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="G77" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H77">
-        <v>319</v>
+        <v>165</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -3914,25 +3869,25 @@
         <v>83</v>
       </c>
       <c r="B78">
-        <v>0.1209677419354839</v>
+        <v>0.1278195488721804</v>
       </c>
       <c r="C78">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="D78">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="E78">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="F78">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="G78" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H78">
-        <v>218</v>
+        <v>232</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -3940,13 +3895,13 @@
         <v>84</v>
       </c>
       <c r="B79">
-        <v>0.12</v>
+        <v>0.1256830601092896</v>
       </c>
       <c r="C79">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D79">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E79">
         <v>0</v>
@@ -3958,7 +3913,7 @@
         <v>0</v>
       </c>
       <c r="H79">
-        <v>154</v>
+        <v>160</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -3966,25 +3921,25 @@
         <v>85</v>
       </c>
       <c r="B80">
-        <v>0.1182795698924731</v>
+        <v>0.1233766233766234</v>
       </c>
       <c r="C80">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D80">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="E80">
-        <v>0.12</v>
+        <v>0</v>
       </c>
       <c r="F80">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="G80" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H80">
-        <v>164</v>
+        <v>135</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -3992,25 +3947,25 @@
         <v>86</v>
       </c>
       <c r="B81">
-        <v>0.115819209039548</v>
+        <v>0.1176470588235294</v>
       </c>
       <c r="C81">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="D81">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="E81">
-        <v>0.02</v>
+        <v>0.08</v>
       </c>
       <c r="F81">
-        <v>0.98</v>
+        <v>0.92</v>
       </c>
       <c r="G81" t="b">
         <v>1</v>
       </c>
       <c r="H81">
-        <v>313</v>
+        <v>165</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -4018,25 +3973,25 @@
         <v>87</v>
       </c>
       <c r="B82">
-        <v>0.1156462585034014</v>
+        <v>0.1153846153846154</v>
       </c>
       <c r="C82">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D82">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E82">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="F82">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="G82" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H82">
-        <v>130</v>
+        <v>115</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -4044,25 +3999,25 @@
         <v>88</v>
       </c>
       <c r="B83">
-        <v>0.1124260355029586</v>
+        <v>0.1101694915254237</v>
       </c>
       <c r="C83">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="D83">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="E83">
-        <v>0.1</v>
+        <v>0.03</v>
       </c>
       <c r="F83">
-        <v>0.9</v>
+        <v>0.97</v>
       </c>
       <c r="G83" t="b">
         <v>1</v>
       </c>
       <c r="H83">
-        <v>150</v>
+        <v>315</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -4070,25 +4025,25 @@
         <v>89</v>
       </c>
       <c r="B84">
-        <v>0.1073825503355705</v>
+        <v>0.109375</v>
       </c>
       <c r="C84">
-        <v>48</v>
+        <v>21</v>
       </c>
       <c r="D84">
-        <v>50</v>
+        <v>21</v>
       </c>
       <c r="E84">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="F84">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="G84" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H84">
-        <v>399</v>
+        <v>171</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -4096,25 +4051,25 @@
         <v>90</v>
       </c>
       <c r="B85">
-        <v>0.1019108280254777</v>
+        <v>0.1071428571428571</v>
       </c>
       <c r="C85">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="D85">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="E85">
-        <v>0.06</v>
+        <v>0.03</v>
       </c>
       <c r="F85">
-        <v>0.9399999999999999</v>
+        <v>0.97</v>
       </c>
       <c r="G85" t="b">
         <v>1</v>
       </c>
       <c r="H85">
-        <v>141</v>
+        <v>325</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -4122,25 +4077,25 @@
         <v>91</v>
       </c>
       <c r="B86">
-        <v>0.08854166666666667</v>
+        <v>0.1019108280254777</v>
       </c>
       <c r="C86">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D86">
         <v>17</v>
       </c>
       <c r="E86">
-        <v>0</v>
+        <v>0.06</v>
       </c>
       <c r="F86">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="G86" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H86">
-        <v>175</v>
+        <v>141</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -4148,25 +4103,25 @@
         <v>92</v>
       </c>
       <c r="B87">
-        <v>0.08112582781456953</v>
+        <v>0.1005917159763314</v>
       </c>
       <c r="C87">
-        <v>49</v>
+        <v>17</v>
       </c>
       <c r="D87">
-        <v>53</v>
+        <v>19</v>
       </c>
       <c r="E87">
-        <v>0.08</v>
+        <v>0.11</v>
       </c>
       <c r="F87">
-        <v>0.92</v>
+        <v>0.89</v>
       </c>
       <c r="G87" t="b">
         <v>1</v>
       </c>
       <c r="H87">
-        <v>555</v>
+        <v>152</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -4174,25 +4129,25 @@
         <v>93</v>
       </c>
       <c r="B88">
-        <v>0.07857142857142857</v>
+        <v>0.1003584229390681</v>
       </c>
       <c r="C88">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="D88">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="E88">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="F88">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="G88" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H88">
-        <v>258</v>
+        <v>251</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -4200,25 +4155,25 @@
         <v>94</v>
       </c>
       <c r="B89">
-        <v>0.0759493670886076</v>
+        <v>0.09142857142857143</v>
       </c>
       <c r="C89">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="D89">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="E89">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="F89">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="G89" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H89">
-        <v>292</v>
+        <v>159</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -4226,25 +4181,25 @@
         <v>95</v>
       </c>
       <c r="B90">
-        <v>0.06775700934579439</v>
+        <v>0.08762886597938144</v>
       </c>
       <c r="C90">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="D90">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="E90">
-        <v>0.17</v>
+        <v>0.11</v>
       </c>
       <c r="F90">
-        <v>0.83</v>
+        <v>0.89</v>
       </c>
       <c r="G90" t="b">
         <v>1</v>
       </c>
       <c r="H90">
-        <v>399</v>
+        <v>177</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -4252,25 +4207,25 @@
         <v>96</v>
       </c>
       <c r="B91">
-        <v>0.0561941251596424</v>
+        <v>0.08085808580858085</v>
       </c>
       <c r="C91">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="D91">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="E91">
-        <v>0.2</v>
+        <v>0.04</v>
       </c>
       <c r="F91">
-        <v>0.8</v>
+        <v>0.96</v>
       </c>
       <c r="G91" t="b">
         <v>1</v>
       </c>
       <c r="H91">
-        <v>739</v>
+        <v>557</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -4278,25 +4233,25 @@
         <v>97</v>
       </c>
       <c r="B92">
-        <v>0.04930662557781202</v>
+        <v>0.08035714285714286</v>
       </c>
       <c r="C92">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="D92">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E92">
-        <v>0.16</v>
+        <v>0.03</v>
       </c>
       <c r="F92">
-        <v>0.84</v>
+        <v>0.97</v>
       </c>
       <c r="G92" t="b">
         <v>1</v>
       </c>
       <c r="H92">
-        <v>617</v>
+        <v>412</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -4304,25 +4259,25 @@
         <v>98</v>
       </c>
       <c r="B93">
-        <v>0.04694835680751173</v>
+        <v>0.06962025316455696</v>
       </c>
       <c r="C93">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D93">
         <v>23</v>
       </c>
       <c r="E93">
-        <v>0.13</v>
+        <v>0.04</v>
       </c>
       <c r="F93">
-        <v>0.87</v>
+        <v>0.96</v>
       </c>
       <c r="G93" t="b">
         <v>1</v>
       </c>
       <c r="H93">
-        <v>406</v>
+        <v>294</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -4330,25 +4285,25 @@
         <v>99</v>
       </c>
       <c r="B94">
-        <v>0.04347826086956522</v>
+        <v>0.06572769953051644</v>
       </c>
       <c r="C94">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="D94">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="E94">
-        <v>0.34</v>
+        <v>0.22</v>
       </c>
       <c r="F94">
-        <v>0.6599999999999999</v>
+        <v>0.78</v>
       </c>
       <c r="G94" t="b">
         <v>1</v>
       </c>
       <c r="H94">
-        <v>418</v>
+        <v>398</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -4356,25 +4311,129 @@
         <v>100</v>
       </c>
       <c r="B95">
-        <v>0.03393213572854292</v>
+        <v>0.06451612903225806</v>
       </c>
       <c r="C95">
+        <v>42</v>
+      </c>
+      <c r="D95">
+        <v>46</v>
+      </c>
+      <c r="E95">
+        <v>0.09</v>
+      </c>
+      <c r="F95">
+        <v>0.91</v>
+      </c>
+      <c r="G95" t="b">
+        <v>1</v>
+      </c>
+      <c r="H95">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
+      <c r="A96" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B96">
+        <v>0.05548387096774193</v>
+      </c>
+      <c r="C96">
+        <v>43</v>
+      </c>
+      <c r="D96">
+        <v>62</v>
+      </c>
+      <c r="E96">
+        <v>0.31</v>
+      </c>
+      <c r="F96">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="G96" t="b">
+        <v>1</v>
+      </c>
+      <c r="H96">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
+      <c r="A97" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B97">
+        <v>0.05157593123209169</v>
+      </c>
+      <c r="C97">
+        <v>18</v>
+      </c>
+      <c r="D97">
+        <v>20</v>
+      </c>
+      <c r="E97">
+        <v>0.1</v>
+      </c>
+      <c r="F97">
+        <v>0.9</v>
+      </c>
+      <c r="G97" t="b">
+        <v>1</v>
+      </c>
+      <c r="H97">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
+      <c r="A98" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B98">
+        <v>0.04225352112676056</v>
+      </c>
+      <c r="C98">
+        <v>18</v>
+      </c>
+      <c r="D98">
+        <v>21</v>
+      </c>
+      <c r="E98">
+        <v>0.14</v>
+      </c>
+      <c r="F98">
+        <v>0.86</v>
+      </c>
+      <c r="G98" t="b">
+        <v>1</v>
+      </c>
+      <c r="H98">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
+      <c r="A99" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B99">
+        <v>0.03881278538812785</v>
+      </c>
+      <c r="C99">
         <v>17</v>
       </c>
-      <c r="D95">
-        <v>20</v>
-      </c>
-      <c r="E95">
-        <v>0.15</v>
-      </c>
-      <c r="F95">
-        <v>0.85</v>
-      </c>
-      <c r="G95" t="b">
-        <v>1</v>
-      </c>
-      <c r="H95">
-        <v>484</v>
+      <c r="D99">
+        <v>26</v>
+      </c>
+      <c r="E99">
+        <v>0.35</v>
+      </c>
+      <c r="F99">
+        <v>0.65</v>
+      </c>
+      <c r="G99" t="b">
+        <v>1</v>
+      </c>
+      <c r="H99">
+        <v>421</v>
       </c>
     </row>
   </sheetData>
